--- a/CETC/ExcelFile/deviceData.xlsx
+++ b/CETC/ExcelFile/deviceData.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E08727-5708-4342-9BDD-FF2D06D7A20E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="32">
   <si>
     <t>LineNO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,10 +39,6 @@
   </si>
   <si>
     <t>MemoryUsage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shift</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -154,7 +149,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -254,7 +249,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -287,26 +282,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -339,23 +317,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -531,11 +492,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -547,10 +508,9 @@
     <col min="6" max="6" width="21.25" customWidth="1"/>
     <col min="7" max="7" width="14.875" customWidth="1"/>
     <col min="8" max="8" width="15.75" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,10 +518,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -575,16 +535,13 @@
       <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -605,12 +562,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -631,12 +588,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -657,12 +614,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -683,12 +640,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -709,12 +666,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -735,12 +692,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -761,12 +718,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -787,12 +744,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>-1</v>
@@ -813,12 +770,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -839,12 +796,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -865,12 +822,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -891,12 +848,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -917,12 +874,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -943,12 +900,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -971,10 +928,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -997,10 +954,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1023,10 +980,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1049,10 +1006,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1075,10 +1032,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1101,10 +1058,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1127,10 +1084,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1153,10 +1110,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1179,10 +1136,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1205,10 +1162,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1231,10 +1188,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1257,10 +1214,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1283,10 +1240,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1309,10 +1266,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1335,10 +1292,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1361,10 +1318,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1387,10 +1344,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1413,10 +1370,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1439,10 +1396,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C35">
         <v>-1</v>
@@ -1465,10 +1422,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1491,10 +1448,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1517,10 +1474,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1543,10 +1500,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1569,10 +1526,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1595,10 +1552,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1621,10 +1578,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1647,10 +1604,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1673,10 +1630,10 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1699,10 +1656,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1725,10 +1682,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1751,10 +1708,10 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1777,10 +1734,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1803,10 +1760,10 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1829,10 +1786,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1855,10 +1812,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -1881,10 +1838,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1907,10 +1864,10 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53">
         <v>-1</v>
@@ -1933,10 +1890,10 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -1959,10 +1916,10 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -1985,10 +1942,10 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2011,10 +1968,10 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2037,10 +1994,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2063,10 +2020,10 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2089,10 +2046,10 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2115,10 +2072,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C61">
         <v>-1</v>
@@ -2141,10 +2098,10 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -2167,10 +2124,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -2193,10 +2150,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -2219,10 +2176,10 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2245,10 +2202,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -2271,10 +2228,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2297,10 +2254,10 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -2323,10 +2280,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -2349,10 +2306,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -2375,10 +2332,10 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -2401,10 +2358,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -2427,10 +2384,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2453,10 +2410,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -2479,10 +2436,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -2511,7 +2468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2524,7 +2481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/CETC/ExcelFile/deviceData.xlsx
+++ b/CETC/ExcelFile/deviceData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="33">
   <si>
     <t>LineNO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +143,10 @@
   </si>
   <si>
     <t>DeviceStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -493,1970 +497,2195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="21.25" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="2" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="7" width="21.25" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="9" max="9" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
         <v>23</v>
       </c>
-      <c r="F2">
-        <v>60</v>
-      </c>
       <c r="G2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H2">
+        <v>50</v>
+      </c>
+      <c r="I2">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
       <c r="D3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
         <v>42</v>
       </c>
-      <c r="F3">
-        <v>70</v>
-      </c>
       <c r="G3">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
       <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
         <v>22</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>65</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>66</v>
       </c>
-      <c r="H4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+      <c r="I4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
       <c r="D5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
         <v>11</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>75</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>55</v>
       </c>
-      <c r="H5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+      <c r="I5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
       <c r="D6">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
         <v>6</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>80</v>
       </c>
-      <c r="G6">
-        <v>40</v>
-      </c>
       <c r="H6">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
       <c r="D7">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
         <v>23</v>
       </c>
-      <c r="F7">
-        <v>60</v>
-      </c>
       <c r="G7">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H7">
+        <v>50</v>
+      </c>
+      <c r="I7">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
       <c r="D8">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
         <v>42</v>
       </c>
-      <c r="F8">
-        <v>70</v>
-      </c>
       <c r="G8">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0</v>
       </c>
-      <c r="D9">
-        <v>100</v>
-      </c>
       <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
         <v>22</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>65</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>66</v>
       </c>
-      <c r="H9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+      <c r="I9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-1</v>
       </c>
-      <c r="D10">
-        <v>100</v>
-      </c>
       <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
         <v>11</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>75</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>55</v>
       </c>
-      <c r="H10">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+      <c r="I10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0</v>
       </c>
-      <c r="D11">
-        <v>100</v>
-      </c>
       <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11">
         <v>6</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>80</v>
       </c>
-      <c r="G11">
-        <v>40</v>
-      </c>
       <c r="H11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
       <c r="D12">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
         <v>23</v>
       </c>
-      <c r="F12">
-        <v>60</v>
-      </c>
       <c r="G12">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H12">
+        <v>50</v>
+      </c>
+      <c r="I12">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
       <c r="D13">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13">
         <v>42</v>
       </c>
-      <c r="F13">
-        <v>70</v>
-      </c>
       <c r="G13">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H13">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
       <c r="D14">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14">
         <v>22</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>65</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>66</v>
       </c>
-      <c r="H14">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+      <c r="I14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
       <c r="D15">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15">
         <v>11</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>75</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>55</v>
       </c>
-      <c r="H15">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
+      <c r="I15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0</v>
       </c>
-      <c r="D16">
-        <v>100</v>
-      </c>
       <c r="E16">
+        <v>100</v>
+      </c>
+      <c r="F16">
         <v>6</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>80</v>
       </c>
-      <c r="G16">
-        <v>40</v>
-      </c>
       <c r="H16">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
       <c r="D17">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E17">
+        <v>100</v>
+      </c>
+      <c r="F17">
         <v>23</v>
       </c>
-      <c r="F17">
-        <v>60</v>
-      </c>
       <c r="G17">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H17">
+        <v>50</v>
+      </c>
+      <c r="I17">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0</v>
       </c>
-      <c r="D18">
-        <v>100</v>
-      </c>
       <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18">
         <v>42</v>
       </c>
-      <c r="F18">
-        <v>70</v>
-      </c>
       <c r="G18">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H18">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
       <c r="D19">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E19">
+        <v>100</v>
+      </c>
+      <c r="F19">
         <v>22</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>65</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>66</v>
       </c>
-      <c r="H19">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
+      <c r="I19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
       <c r="D20">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E20">
+        <v>100</v>
+      </c>
+      <c r="F20">
         <v>11</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>75</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>55</v>
       </c>
-      <c r="H20">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
+      <c r="I20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
       <c r="D21">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E21">
+        <v>100</v>
+      </c>
+      <c r="F21">
         <v>6</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>80</v>
       </c>
-      <c r="G21">
-        <v>40</v>
-      </c>
       <c r="H21">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="I21">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C22">
-        <v>1</v>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E22">
+        <v>100</v>
+      </c>
+      <c r="F22">
         <v>23</v>
       </c>
-      <c r="F22">
-        <v>60</v>
-      </c>
       <c r="G22">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H22">
+        <v>50</v>
+      </c>
+      <c r="I22">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0</v>
       </c>
-      <c r="D23">
-        <v>100</v>
-      </c>
       <c r="E23">
+        <v>100</v>
+      </c>
+      <c r="F23">
         <v>42</v>
       </c>
-      <c r="F23">
-        <v>70</v>
-      </c>
       <c r="G23">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H23">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
       <c r="D24">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E24">
+        <v>100</v>
+      </c>
+      <c r="F24">
         <v>22</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>65</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>66</v>
       </c>
-      <c r="H24">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
+      <c r="I24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
       <c r="D25">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E25">
+        <v>100</v>
+      </c>
+      <c r="F25">
         <v>11</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>75</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>55</v>
       </c>
-      <c r="H25">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
+      <c r="I25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
       <c r="D26">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E26">
+        <v>100</v>
+      </c>
+      <c r="F26">
         <v>6</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>80</v>
       </c>
-      <c r="G26">
-        <v>40</v>
-      </c>
       <c r="H26">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
       <c r="D27">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E27">
+        <v>100</v>
+      </c>
+      <c r="F27">
         <v>23</v>
       </c>
-      <c r="F27">
-        <v>60</v>
-      </c>
       <c r="G27">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H27">
+        <v>50</v>
+      </c>
+      <c r="I27">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>0</v>
       </c>
-      <c r="D28">
-        <v>100</v>
-      </c>
       <c r="E28">
+        <v>100</v>
+      </c>
+      <c r="F28">
         <v>42</v>
       </c>
-      <c r="F28">
-        <v>70</v>
-      </c>
       <c r="G28">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H28">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>0</v>
       </c>
-      <c r="D29">
-        <v>100</v>
-      </c>
       <c r="E29">
+        <v>100</v>
+      </c>
+      <c r="F29">
         <v>22</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>65</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>66</v>
       </c>
-      <c r="H29">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
+      <c r="I29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
       <c r="D30">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E30">
+        <v>100</v>
+      </c>
+      <c r="F30">
         <v>11</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>75</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>55</v>
       </c>
-      <c r="H30">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
+      <c r="I30">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
       <c r="D31">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E31">
+        <v>100</v>
+      </c>
+      <c r="F31">
         <v>6</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>80</v>
       </c>
-      <c r="G31">
-        <v>40</v>
-      </c>
       <c r="H31">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
       <c r="D32">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E32">
+        <v>100</v>
+      </c>
+      <c r="F32">
         <v>23</v>
       </c>
-      <c r="F32">
-        <v>60</v>
-      </c>
       <c r="G32">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H32">
+        <v>50</v>
+      </c>
+      <c r="I32">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
       <c r="D33">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E33">
+        <v>100</v>
+      </c>
+      <c r="F33">
         <v>42</v>
       </c>
-      <c r="F33">
-        <v>70</v>
-      </c>
       <c r="G33">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H33">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I33">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
       <c r="D34">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E34">
+        <v>100</v>
+      </c>
+      <c r="F34">
         <v>22</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>65</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>66</v>
       </c>
-      <c r="H34">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
+      <c r="I34">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>-1</v>
       </c>
-      <c r="D35">
-        <v>100</v>
-      </c>
       <c r="E35">
+        <v>100</v>
+      </c>
+      <c r="F35">
         <v>11</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>75</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>55</v>
       </c>
-      <c r="H35">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
+      <c r="I35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
       <c r="D36">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E36">
+        <v>100</v>
+      </c>
+      <c r="F36">
         <v>6</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>80</v>
       </c>
-      <c r="G36">
-        <v>40</v>
-      </c>
       <c r="H36">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>0</v>
       </c>
-      <c r="D37">
-        <v>100</v>
-      </c>
       <c r="E37">
+        <v>100</v>
+      </c>
+      <c r="F37">
         <v>23</v>
       </c>
-      <c r="F37">
-        <v>60</v>
-      </c>
       <c r="G37">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H37">
+        <v>50</v>
+      </c>
+      <c r="I37">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
       <c r="D38">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E38">
+        <v>100</v>
+      </c>
+      <c r="F38">
         <v>42</v>
       </c>
-      <c r="F38">
-        <v>70</v>
-      </c>
       <c r="G38">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H38">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
       <c r="D39">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E39">
+        <v>100</v>
+      </c>
+      <c r="F39">
         <v>22</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>65</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>66</v>
       </c>
-      <c r="H39">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
-        <v>19</v>
+      <c r="I39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C40">
-        <v>1</v>
+      <c r="C40" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D40">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E40">
+        <v>100</v>
+      </c>
+      <c r="F40">
         <v>11</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>75</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>55</v>
       </c>
-      <c r="H40">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
+      <c r="I40">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
       <c r="D41">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E41">
+        <v>100</v>
+      </c>
+      <c r="F41">
         <v>6</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>80</v>
       </c>
-      <c r="G41">
-        <v>40</v>
-      </c>
       <c r="H41">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I41">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
       <c r="D42">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E42">
+        <v>100</v>
+      </c>
+      <c r="F42">
         <v>23</v>
       </c>
-      <c r="F42">
-        <v>60</v>
-      </c>
       <c r="G42">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H42">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I42">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
       <c r="D43">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E43">
+        <v>100</v>
+      </c>
+      <c r="F43">
         <v>42</v>
       </c>
-      <c r="F43">
-        <v>70</v>
-      </c>
       <c r="G43">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H43">
+        <v>60</v>
+      </c>
+      <c r="I43">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
       <c r="D44">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E44">
+        <v>100</v>
+      </c>
+      <c r="F44">
         <v>22</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>65</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>66</v>
       </c>
-      <c r="H44">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="1" t="s">
+      <c r="I44">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
       <c r="D45">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E45">
+        <v>100</v>
+      </c>
+      <c r="F45">
         <v>11</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>75</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>55</v>
       </c>
-      <c r="H45">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="s">
+      <c r="I45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
       <c r="D46">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E46">
+        <v>100</v>
+      </c>
+      <c r="F46">
         <v>6</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>80</v>
       </c>
-      <c r="G46">
-        <v>40</v>
-      </c>
       <c r="H46">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I46">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
       <c r="D47">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E47">
+        <v>100</v>
+      </c>
+      <c r="F47">
         <v>23</v>
       </c>
-      <c r="F47">
-        <v>60</v>
-      </c>
       <c r="G47">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H47">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I47">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
       <c r="D48">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E48">
+        <v>100</v>
+      </c>
+      <c r="F48">
         <v>42</v>
       </c>
-      <c r="F48">
-        <v>70</v>
-      </c>
       <c r="G48">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H48">
+        <v>60</v>
+      </c>
+      <c r="I48">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
       <c r="D49">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E49">
+        <v>100</v>
+      </c>
+      <c r="F49">
         <v>22</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>65</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>66</v>
       </c>
-      <c r="H49">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="1" t="s">
+      <c r="I49">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
       <c r="D50">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E50">
+        <v>100</v>
+      </c>
+      <c r="F50">
         <v>11</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>75</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>55</v>
       </c>
-      <c r="H50">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="1" t="s">
+      <c r="I50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
       <c r="D51">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E51">
+        <v>100</v>
+      </c>
+      <c r="F51">
         <v>6</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>80</v>
       </c>
-      <c r="G51">
-        <v>40</v>
-      </c>
       <c r="H51">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I51">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>0</v>
       </c>
-      <c r="D52">
-        <v>100</v>
-      </c>
       <c r="E52">
+        <v>100</v>
+      </c>
+      <c r="F52">
         <v>23</v>
       </c>
-      <c r="F52">
-        <v>60</v>
-      </c>
       <c r="G52">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H52">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I52">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>-1</v>
       </c>
-      <c r="D53">
-        <v>100</v>
-      </c>
       <c r="E53">
+        <v>100</v>
+      </c>
+      <c r="F53">
         <v>42</v>
       </c>
-      <c r="F53">
-        <v>70</v>
-      </c>
       <c r="G53">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H53">
+        <v>60</v>
+      </c>
+      <c r="I53">
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
       <c r="D54">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E54">
+        <v>100</v>
+      </c>
+      <c r="F54">
         <v>22</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>65</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>66</v>
       </c>
-      <c r="H54">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A55" s="1" t="s">
+      <c r="I54">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
       <c r="D55">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E55">
+        <v>100</v>
+      </c>
+      <c r="F55">
         <v>11</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>75</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>55</v>
       </c>
-      <c r="H55">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A56" s="1" t="s">
+      <c r="I55">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
       <c r="D56">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E56">
+        <v>100</v>
+      </c>
+      <c r="F56">
         <v>6</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>80</v>
       </c>
-      <c r="G56">
-        <v>40</v>
-      </c>
       <c r="H56">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A57" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I56">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>0</v>
       </c>
-      <c r="D57">
-        <v>100</v>
-      </c>
       <c r="E57">
+        <v>100</v>
+      </c>
+      <c r="F57">
         <v>23</v>
       </c>
-      <c r="F57">
-        <v>60</v>
-      </c>
       <c r="G57">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H57">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A58" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I57">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
       <c r="D58">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E58">
+        <v>100</v>
+      </c>
+      <c r="F58">
         <v>42</v>
       </c>
-      <c r="F58">
-        <v>70</v>
-      </c>
       <c r="G58">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H58">
+        <v>60</v>
+      </c>
+      <c r="I58">
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
       <c r="D59">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E59">
+        <v>100</v>
+      </c>
+      <c r="F59">
         <v>22</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>65</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>66</v>
       </c>
-      <c r="H59">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A60" s="1" t="s">
+      <c r="I59">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>0</v>
       </c>
-      <c r="D60">
-        <v>100</v>
-      </c>
       <c r="E60">
+        <v>100</v>
+      </c>
+      <c r="F60">
         <v>11</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>75</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>55</v>
       </c>
-      <c r="H60">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A61" s="1" t="s">
+      <c r="I60">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>-1</v>
       </c>
-      <c r="D61">
-        <v>100</v>
-      </c>
       <c r="E61">
+        <v>100</v>
+      </c>
+      <c r="F61">
         <v>6</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>80</v>
       </c>
-      <c r="G61">
-        <v>40</v>
-      </c>
       <c r="H61">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A62" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
       <c r="D62">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E62">
+        <v>100</v>
+      </c>
+      <c r="F62">
         <v>23</v>
       </c>
-      <c r="F62">
-        <v>60</v>
-      </c>
       <c r="G62">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H62">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A63" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I62">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
       <c r="D63">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E63">
+        <v>100</v>
+      </c>
+      <c r="F63">
         <v>42</v>
       </c>
-      <c r="F63">
-        <v>70</v>
-      </c>
       <c r="G63">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H63">
+        <v>50</v>
+      </c>
+      <c r="I63">
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A64" s="1" t="s">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
       <c r="D64">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E64">
+        <v>100</v>
+      </c>
+      <c r="F64">
         <v>22</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>65</v>
       </c>
-      <c r="G64">
-        <v>60</v>
-      </c>
       <c r="H64">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A65" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I64">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>0</v>
       </c>
-      <c r="D65">
-        <v>100</v>
-      </c>
       <c r="E65">
+        <v>100</v>
+      </c>
+      <c r="F65">
         <v>11</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>75</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>66</v>
       </c>
-      <c r="H65">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A66" s="1" t="s">
+      <c r="I65">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
       <c r="D66">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E66">
+        <v>100</v>
+      </c>
+      <c r="F66">
         <v>6</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>80</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>55</v>
       </c>
-      <c r="H66">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A67" s="1" t="s">
+      <c r="I66">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>0</v>
       </c>
-      <c r="D67">
-        <v>100</v>
-      </c>
       <c r="E67">
+        <v>100</v>
+      </c>
+      <c r="F67">
         <v>23</v>
       </c>
-      <c r="F67">
-        <v>60</v>
-      </c>
       <c r="G67">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H67">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A68" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I67">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>0</v>
       </c>
-      <c r="D68">
-        <v>100</v>
-      </c>
       <c r="E68">
+        <v>100</v>
+      </c>
+      <c r="F68">
         <v>42</v>
       </c>
-      <c r="F68">
-        <v>70</v>
-      </c>
       <c r="G68">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H68">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A69" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I68">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
       <c r="D69">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E69">
+        <v>100</v>
+      </c>
+      <c r="F69">
         <v>22</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>65</v>
       </c>
-      <c r="G69">
-        <v>60</v>
-      </c>
       <c r="H69">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A70" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I69">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
       <c r="D70">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E70">
+        <v>100</v>
+      </c>
+      <c r="F70">
         <v>11</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>75</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>66</v>
       </c>
-      <c r="H70">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A71" s="1" t="s">
+      <c r="I70">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
       <c r="D71">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E71">
+        <v>100</v>
+      </c>
+      <c r="F71">
         <v>6</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>80</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>55</v>
       </c>
-      <c r="H71">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A72" s="1" t="s">
+      <c r="I71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
       <c r="D72">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E72">
+        <v>100</v>
+      </c>
+      <c r="F72">
         <v>23</v>
       </c>
-      <c r="F72">
-        <v>60</v>
-      </c>
       <c r="G72">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H72">
+        <v>40</v>
+      </c>
+      <c r="I72">
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A73" s="1" t="s">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>0</v>
       </c>
-      <c r="D73">
-        <v>100</v>
-      </c>
       <c r="E73">
+        <v>100</v>
+      </c>
+      <c r="F73">
         <v>42</v>
       </c>
-      <c r="F73">
-        <v>70</v>
-      </c>
       <c r="G73">
+        <v>70</v>
+      </c>
+      <c r="H73">
         <v>66</v>
       </c>
-      <c r="H73">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A74" s="1" t="s">
+      <c r="I73">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>0</v>
       </c>
-      <c r="D74">
-        <v>100</v>
-      </c>
       <c r="E74">
+        <v>100</v>
+      </c>
+      <c r="F74">
         <v>22</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>65</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>55</v>
       </c>
-      <c r="H74">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A75" s="1" t="s">
+      <c r="I74">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
       <c r="D75">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E75">
+        <v>100</v>
+      </c>
+      <c r="F75">
         <v>11</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>75</v>
       </c>
-      <c r="G75">
-        <v>40</v>
-      </c>
       <c r="H75">
+        <v>40</v>
+      </c>
+      <c r="I75">
         <v>60</v>
       </c>
     </row>

--- a/CETC/ExcelFile/deviceData.xlsx
+++ b/CETC/ExcelFile/deviceData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="42">
   <si>
     <t>LineNO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,42 @@
   </si>
   <si>
     <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -612,7 +648,7 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -641,7 +677,7 @@
         <v>9</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>100</v>
@@ -670,7 +706,7 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -699,7 +735,7 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -728,7 +764,7 @@
         <v>12</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -757,7 +793,7 @@
         <v>13</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -786,7 +822,7 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -815,7 +851,7 @@
         <v>16</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -844,7 +880,7 @@
         <v>17</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -896,7 +932,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>19</v>
@@ -925,10 +961,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -937,16 +973,16 @@
         <v>100</v>
       </c>
       <c r="F15">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G15">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H15">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I15">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -954,28 +990,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>100</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="G16">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H16">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="I16">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -986,7 +1022,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -995,16 +1031,16 @@
         <v>100</v>
       </c>
       <c r="F17">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G17">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H17">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I17">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -1012,28 +1048,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>100</v>
       </c>
       <c r="F18">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="G18">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H18">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I18">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -1041,10 +1077,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1053,16 +1089,16 @@
         <v>100</v>
       </c>
       <c r="F19">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G19">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H19">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="I19">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -1073,7 +1109,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1082,16 +1118,16 @@
         <v>100</v>
       </c>
       <c r="F20">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G20">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H20">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I20">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -1099,10 +1135,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1111,16 +1147,16 @@
         <v>100</v>
       </c>
       <c r="F21">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="G21">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H21">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="I21">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -1128,10 +1164,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1140,16 +1176,16 @@
         <v>100</v>
       </c>
       <c r="F22">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G22">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H22">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I22">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -1160,25 +1196,25 @@
         <v>13</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>100</v>
       </c>
       <c r="F23">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="G23">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H23">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I23">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -1186,10 +1222,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1198,16 +1234,16 @@
         <v>100</v>
       </c>
       <c r="F24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G24">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H24">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="I24">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
@@ -1215,10 +1251,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1227,16 +1263,16 @@
         <v>100</v>
       </c>
       <c r="F25">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G25">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H25">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I25">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -1247,7 +1283,7 @@
         <v>14</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1256,16 +1292,16 @@
         <v>100</v>
       </c>
       <c r="F26">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="G26">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H26">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="I26">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -1276,25 +1312,25 @@
         <v>14</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>100</v>
       </c>
       <c r="F27">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G27">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H27">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I27">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -1302,28 +1338,28 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>100</v>
+      </c>
+      <c r="F28">
         <v>6</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>100</v>
-      </c>
-      <c r="F28">
-        <v>42</v>
-      </c>
       <c r="G28">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H28">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I28">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -1334,25 +1370,25 @@
         <v>16</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>100</v>
       </c>
       <c r="F29">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G29">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H29">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I29">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -1363,25 +1399,25 @@
         <v>16</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>100</v>
       </c>
       <c r="F30">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G30">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H30">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I30">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
@@ -1389,10 +1425,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1401,16 +1437,16 @@
         <v>100</v>
       </c>
       <c r="F31">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G31">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H31">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I31">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -1421,7 +1457,7 @@
         <v>17</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1430,16 +1466,16 @@
         <v>100</v>
       </c>
       <c r="F32">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="G32">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H32">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I32">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -1450,25 +1486,25 @@
         <v>17</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>100</v>
       </c>
       <c r="F33">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="G33">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H33">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I33">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
@@ -1476,10 +1512,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1488,16 +1524,16 @@
         <v>100</v>
       </c>
       <c r="F34">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G34">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H34">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I34">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -1508,25 +1544,25 @@
         <v>18</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D35">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>100</v>
       </c>
       <c r="F35">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G35">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H35">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I35">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
@@ -1537,7 +1573,7 @@
         <v>18</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1546,16 +1582,16 @@
         <v>100</v>
       </c>
       <c r="F36">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G36">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H36">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I36">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
@@ -1563,28 +1599,28 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
         <v>100</v>
       </c>
       <c r="F37">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="G37">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H37">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I37">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -1595,25 +1631,25 @@
         <v>19</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>100</v>
       </c>
       <c r="F38">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="G38">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H38">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I38">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
@@ -1624,7 +1660,7 @@
         <v>19</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -1633,16 +1669,16 @@
         <v>100</v>
       </c>
       <c r="F39">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G39">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H39">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I39">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
@@ -1653,7 +1689,7 @@
         <v>19</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1662,16 +1698,16 @@
         <v>100</v>
       </c>
       <c r="F40">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G40">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H40">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I40">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
@@ -1682,7 +1718,7 @@
         <v>20</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -1711,7 +1747,7 @@
         <v>20</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -1740,7 +1776,7 @@
         <v>20</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -1769,7 +1805,7 @@
         <v>21</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1798,7 +1834,7 @@
         <v>21</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1827,7 +1863,7 @@
         <v>21</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1856,7 +1892,7 @@
         <v>22</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1885,7 +1921,7 @@
         <v>22</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1914,7 +1950,7 @@
         <v>22</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1943,7 +1979,7 @@
         <v>23</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1972,7 +2008,7 @@
         <v>23</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -2001,10 +2037,10 @@
         <v>23</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52">
         <v>100</v>
@@ -2027,28 +2063,28 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D53">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E53">
         <v>100</v>
       </c>
       <c r="F53">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="G53">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H53">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I53">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
@@ -2059,7 +2095,7 @@
         <v>24</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -2068,16 +2104,16 @@
         <v>100</v>
       </c>
       <c r="F54">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G54">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H54">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="I54">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
@@ -2088,7 +2124,7 @@
         <v>24</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -2097,16 +2133,16 @@
         <v>100</v>
       </c>
       <c r="F55">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G55">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H55">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I55">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
@@ -2114,10 +2150,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -2126,16 +2162,16 @@
         <v>100</v>
       </c>
       <c r="F56">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="G56">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H56">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I56">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
@@ -2146,25 +2182,25 @@
         <v>25</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57">
         <v>100</v>
       </c>
       <c r="F57">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="G57">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H57">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I57">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
@@ -2175,7 +2211,7 @@
         <v>25</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -2184,16 +2220,16 @@
         <v>100</v>
       </c>
       <c r="F58">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="G58">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H58">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I58">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
@@ -2201,28 +2237,28 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>100</v>
+      </c>
+      <c r="F59">
         <v>11</v>
       </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
-        <v>100</v>
-      </c>
-      <c r="F59">
-        <v>22</v>
-      </c>
       <c r="G59">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H59">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="I59">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
@@ -2233,25 +2269,25 @@
         <v>15</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60">
         <v>100</v>
       </c>
       <c r="F60">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G60">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H60">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I60">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
@@ -2262,25 +2298,25 @@
         <v>15</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D61">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E61">
         <v>100</v>
       </c>
       <c r="F61">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="G61">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H61">
         <v>40</v>
       </c>
       <c r="I61">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
@@ -2288,10 +2324,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -2300,16 +2336,16 @@
         <v>100</v>
       </c>
       <c r="F62">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="G62">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H62">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I62">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
@@ -2320,7 +2356,7 @@
         <v>26</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -2329,16 +2365,16 @@
         <v>100</v>
       </c>
       <c r="F63">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="G63">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H63">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I63">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
@@ -2349,7 +2385,7 @@
         <v>26</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -2358,16 +2394,16 @@
         <v>100</v>
       </c>
       <c r="F64">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G64">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H64">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I64">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
@@ -2375,28 +2411,28 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65">
         <v>100</v>
       </c>
       <c r="F65">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G65">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="H65">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I65">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
@@ -2404,10 +2440,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -2416,16 +2452,16 @@
         <v>100</v>
       </c>
       <c r="F66">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="G66">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H66">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I66">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
@@ -2436,25 +2472,25 @@
         <v>27</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67">
         <v>100</v>
       </c>
       <c r="F67">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G67">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H67">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I67">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
@@ -2462,28 +2498,28 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68">
         <v>100</v>
       </c>
       <c r="F68">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G68">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H68">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="I68">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
@@ -2491,10 +2527,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -2503,16 +2539,16 @@
         <v>100</v>
       </c>
       <c r="F69">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G69">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="H69">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I69">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
@@ -2523,7 +2559,7 @@
         <v>28</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -2532,16 +2568,16 @@
         <v>100</v>
       </c>
       <c r="F70">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G70">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="H70">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I70">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
@@ -2549,10 +2585,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -2561,16 +2597,16 @@
         <v>100</v>
       </c>
       <c r="F71">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="G71">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H71">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I71">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
@@ -2578,10 +2614,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -2590,16 +2626,16 @@
         <v>100</v>
       </c>
       <c r="F72">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G72">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H72">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I72">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
@@ -2610,82 +2646,24 @@
         <v>29</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73">
         <v>100</v>
       </c>
       <c r="F73">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G73">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H73">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I73">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>100</v>
-      </c>
-      <c r="F74">
-        <v>22</v>
-      </c>
-      <c r="G74">
-        <v>65</v>
-      </c>
-      <c r="H74">
-        <v>55</v>
-      </c>
-      <c r="I74">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>100</v>
-      </c>
-      <c r="F75">
-        <v>11</v>
-      </c>
-      <c r="G75">
-        <v>75</v>
-      </c>
-      <c r="H75">
-        <v>40</v>
-      </c>
-      <c r="I75">
         <v>60</v>
       </c>
     </row>
